--- a/开支/总开支情况.xlsx
+++ b/开支/总开支情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>2019年51开发板项目开支详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>2019.4.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报销(190713)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,51 +606,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>238</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E10" si="0">C7*D7</f>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E9" si="0">C7*D7</f>
         <v>238</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>27.92</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>27.92</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/开支/总开支情况.xlsx
+++ b/开支/总开支情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>2019年51开发板项目开支详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,7 +108,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已报销(190713)</t>
+    <t>SRP报销(190713)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRP报销(190713)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国赛报销(190811)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见4.13元器件购买表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,57 +666,114 @@
         <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>28.78</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>28.78</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E11" si="1">C10*D10</f>
+        <v>16.309999999999999</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10.51</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>10.51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="1">
         <v>126.81</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <f>C10*D10</f>
+      <c r="E12" s="1">
+        <f>C12*D12</f>
         <v>126.81</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
